--- a/pred_result/test_1_13_noif.xlsx
+++ b/pred_result/test_1_13_noif.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FF25A27D-8866-4A1F-993F-4690C00E2668}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839FBF72-AE04-409F-A11F-285E37052382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_1_13_noif" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -934,16 +934,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M371"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K368" sqref="K368"/>
+    <sheetView tabSelected="1" topLeftCell="C220" workbookViewId="0">
+      <selection activeCell="K332" sqref="K332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>17.785563219161201</v>
       </c>
@@ -970,11 +970,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>19.732595103127601</v>
       </c>
@@ -987,11 +987,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>15.4816779295603</v>
       </c>
@@ -1004,11 +1004,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>18.630954413186899</v>
       </c>
@@ -1021,11 +1021,11 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>20.0840014957246</v>
       </c>
@@ -1038,11 +1038,11 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>15.800406910124201</v>
       </c>
@@ -1055,11 +1055,11 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>17.856264602570299</v>
       </c>
@@ -1072,11 +1072,11 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>19.5362821192968</v>
       </c>
@@ -1089,11 +1089,11 @@
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>14.091190519787</v>
       </c>
@@ -1106,11 +1106,11 @@
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>17.187001750582699</v>
       </c>
@@ -1123,11 +1123,11 @@
       <c r="D11">
         <v>9</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>20.143359649749002</v>
       </c>
@@ -1140,11 +1140,11 @@
       <c r="D12">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>15.260893781979799</v>
       </c>
@@ -1157,11 +1157,11 @@
       <c r="D13">
         <v>11</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>18.0120635827382</v>
       </c>
@@ -1174,11 +1174,11 @@
       <c r="D14">
         <v>12</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>21.598653305144499</v>
       </c>
@@ -1191,11 +1191,11 @@
       <c r="D15">
         <v>13</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14.966904413132401</v>
       </c>
@@ -1208,11 +1208,11 @@
       <c r="D16">
         <v>14</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16.0870125066666</v>
       </c>
@@ -1225,11 +1225,11 @@
       <c r="D17">
         <v>15</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17.6109124365307</v>
       </c>
@@ -1242,11 +1242,11 @@
       <c r="D18">
         <v>16</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>13.849927300498599</v>
       </c>
@@ -1259,11 +1259,11 @@
       <c r="D19">
         <v>17</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>18.676933810824401</v>
       </c>
@@ -1276,11 +1276,11 @@
       <c r="D20">
         <v>18</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20.813731341134901</v>
       </c>
@@ -1293,11 +1293,11 @@
       <c r="D21">
         <v>19</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>15.115700386819301</v>
       </c>
@@ -1310,11 +1310,11 @@
       <c r="D22">
         <v>20</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>18.153832764852599</v>
       </c>
@@ -1327,11 +1327,11 @@
       <c r="D23">
         <v>21</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>20.2500406901041</v>
       </c>
@@ -1344,11 +1344,11 @@
       <c r="D24">
         <v>22</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>14.920909347988299</v>
       </c>
@@ -1361,11 +1361,11 @@
       <c r="D25">
         <v>23</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>18.9103259699685</v>
       </c>
@@ -1378,11 +1378,11 @@
       <c r="D26">
         <v>24</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>20.247669776280699</v>
       </c>
@@ -1395,11 +1395,11 @@
       <c r="D27">
         <v>25</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>14.1622576259431</v>
       </c>
@@ -1412,11 +1412,11 @@
       <c r="D28">
         <v>26</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>17.611693439029501</v>
       </c>
@@ -1429,11 +1429,11 @@
       <c r="D29">
         <v>27</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>20.658922354380199</v>
       </c>
@@ -1446,11 +1446,11 @@
       <c r="D30">
         <v>28</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>13.9544496876852</v>
       </c>
@@ -1463,11 +1463,11 @@
       <c r="D31">
         <v>29</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>18.863159713290901</v>
       </c>
@@ -1480,11 +1480,11 @@
       <c r="D32">
         <v>30</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>19.090682983398398</v>
       </c>
@@ -1497,11 +1497,11 @@
       <c r="D33">
         <v>31</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>14.698217250051901</v>
       </c>
@@ -1514,11 +1514,11 @@
       <c r="D34">
         <v>32</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>19.0149885472797</v>
       </c>
@@ -1531,11 +1531,11 @@
       <c r="D35">
         <v>33</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>20.158949341092701</v>
       </c>
@@ -1548,11 +1548,11 @@
       <c r="D36">
         <v>34</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>15.545350631078</v>
       </c>
@@ -1565,11 +1565,11 @@
       <c r="D37">
         <v>35</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>19.108337084452302</v>
       </c>
@@ -1582,11 +1582,11 @@
       <c r="D38">
         <v>36</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>21.2541402748652</v>
       </c>
@@ -1599,11 +1599,11 @@
       <c r="D39">
         <v>37</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>14.853078302882899</v>
       </c>
@@ -1616,11 +1616,11 @@
       <c r="D40">
         <v>38</v>
       </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>21.110678071067401</v>
       </c>
@@ -1633,11 +1633,11 @@
       <c r="D41">
         <v>39</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>14.4378360964003</v>
       </c>
@@ -1650,11 +1650,11 @@
       <c r="D42">
         <v>40</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>18.3366380191984</v>
       </c>
@@ -1667,11 +1667,11 @@
       <c r="D43">
         <v>41</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>20.5627202306474</v>
       </c>
@@ -1684,11 +1684,11 @@
       <c r="D44">
         <v>42</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>14.912342202095701</v>
       </c>
@@ -1701,11 +1701,11 @@
       <c r="D45">
         <v>43</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>18.201711824962</v>
       </c>
@@ -1718,11 +1718,11 @@
       <c r="D46">
         <v>44</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>19.528556142534502</v>
       </c>
@@ -1735,11 +1735,11 @@
       <c r="D47">
         <v>45</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>15.2630481549671</v>
       </c>
@@ -1752,11 +1752,11 @@
       <c r="D48">
         <v>46</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>18.578124988646699</v>
       </c>
@@ -1769,11 +1769,11 @@
       <c r="D49">
         <v>47</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>19.7237935633886</v>
       </c>
@@ -1786,11 +1786,11 @@
       <c r="D50">
         <v>48</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>14.8274806283769</v>
       </c>
@@ -1803,11 +1803,11 @@
       <c r="D51">
         <v>49</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>12.71398184413</v>
       </c>
@@ -1820,11 +1820,11 @@
       <c r="D52">
         <v>50</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>14.9050452709198</v>
       </c>
@@ -1837,11 +1837,11 @@
       <c r="D53">
         <v>51</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>12.819178365525699</v>
       </c>
@@ -1854,11 +1854,11 @@
       <c r="D54">
         <v>52</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>6.3922969046093101</v>
       </c>
@@ -1871,11 +1871,11 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>8.3553621768951398</v>
       </c>
@@ -1888,11 +1888,11 @@
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>19.085780575161799</v>
       </c>
@@ -1905,11 +1905,11 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>19.0928177492959</v>
       </c>
@@ -1922,11 +1922,11 @@
       <c r="D58">
         <v>3</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>23.163578498931098</v>
       </c>
@@ -1939,11 +1939,11 @@
       <c r="D59">
         <v>4</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>18.577470722652599</v>
       </c>
@@ -1956,11 +1956,11 @@
       <c r="D60">
         <v>5</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>7.4022334530240004</v>
       </c>
@@ -1973,11 +1973,11 @@
       <c r="D61">
         <v>6</v>
       </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>17.267739863622701</v>
       </c>
@@ -1990,11 +1990,11 @@
       <c r="D62">
         <v>7</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>7.6729235308510901</v>
       </c>
@@ -2007,11 +2007,11 @@
       <c r="D63">
         <v>8</v>
       </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>9.2588125864664708</v>
       </c>
@@ -2024,11 +2024,11 @@
       <c r="D64">
         <v>9</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>5.8880460829961798</v>
       </c>
@@ -2041,11 +2041,11 @@
       <c r="D65">
         <v>10</v>
       </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>10.560513836996799</v>
       </c>
@@ -2058,11 +2058,11 @@
       <c r="D66">
         <v>11</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>10.090351558866899</v>
       </c>
@@ -2075,11 +2075,11 @@
       <c r="D67">
         <v>12</v>
       </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>18.757807595389199</v>
       </c>
@@ -2092,11 +2092,11 @@
       <c r="D68">
         <v>13</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>11.855732361475599</v>
       </c>
@@ -2109,11 +2109,11 @@
       <c r="D69">
         <v>14</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>22.533921525591801</v>
       </c>
@@ -2126,11 +2126,11 @@
       <c r="D70">
         <v>15</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>21.793630985986599</v>
       </c>
@@ -2143,11 +2143,11 @@
       <c r="D71">
         <v>16</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>23.853690692356601</v>
       </c>
@@ -2160,11 +2160,11 @@
       <c r="D72">
         <v>17</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>19.0664123921167</v>
       </c>
@@ -2177,11 +2177,11 @@
       <c r="D73">
         <v>18</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>8.2971677212487993</v>
       </c>
@@ -2194,11 +2194,11 @@
       <c r="D74">
         <v>19</v>
       </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>10.3017979462941</v>
       </c>
@@ -2211,11 +2211,11 @@
       <c r="D75">
         <v>20</v>
       </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>16.245449043455501</v>
       </c>
@@ -2228,11 +2228,11 @@
       <c r="D76">
         <v>21</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>6.9953254745119997</v>
       </c>
@@ -2245,11 +2245,11 @@
       <c r="D77">
         <v>22</v>
       </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>6.3353498776753696</v>
       </c>
@@ -2262,11 +2262,11 @@
       <c r="D78">
         <v>23</v>
       </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>11.268683115641201</v>
       </c>
@@ -2279,11 +2279,11 @@
       <c r="D79">
         <v>24</v>
       </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>11.277641069321399</v>
       </c>
@@ -2296,11 +2296,11 @@
       <c r="D80">
         <v>25</v>
       </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>19.772192966370302</v>
       </c>
@@ -2313,11 +2313,11 @@
       <c r="D81">
         <v>26</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>12.715813137235999</v>
       </c>
@@ -2330,11 +2330,11 @@
       <c r="D82">
         <v>27</v>
       </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>22.0521356945946</v>
       </c>
@@ -2347,11 +2347,11 @@
       <c r="D83">
         <v>28</v>
       </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>21.3294665699913</v>
       </c>
@@ -2364,11 +2364,11 @@
       <c r="D84">
         <v>29</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>23.535422415960401</v>
       </c>
@@ -2381,11 +2381,11 @@
       <c r="D85">
         <v>30</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>17.417205992199101</v>
       </c>
@@ -2398,11 +2398,11 @@
       <c r="D86">
         <v>31</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>8.4302585238502097</v>
       </c>
@@ -2415,11 +2415,11 @@
       <c r="D87">
         <v>32</v>
       </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>9.3117557593754299</v>
       </c>
@@ -2432,11 +2432,11 @@
       <c r="D88">
         <v>33</v>
       </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>19.340592475164499</v>
       </c>
@@ -2449,11 +2449,11 @@
       <c r="D89">
         <v>34</v>
       </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>6.81234725316365</v>
       </c>
@@ -2466,11 +2466,11 @@
       <c r="D90">
         <v>35</v>
       </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>7.6790932246616901</v>
       </c>
@@ -2483,11 +2483,11 @@
       <c r="D91">
         <v>36</v>
       </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>6.3446411632356101</v>
       </c>
@@ -2500,11 +2500,11 @@
       <c r="D92">
         <v>37</v>
       </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>11.2510334083012</v>
       </c>
@@ -2517,11 +2517,11 @@
       <c r="D93">
         <v>38</v>
       </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>10.2545977206457</v>
       </c>
@@ -2534,11 +2534,11 @@
       <c r="D94">
         <v>39</v>
       </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>18.055628231593499</v>
       </c>
@@ -2551,11 +2551,11 @@
       <c r="D95">
         <v>40</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>12.9298665182931</v>
       </c>
@@ -2568,11 +2568,11 @@
       <c r="D96">
         <v>41</v>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>22.379932676042799</v>
       </c>
@@ -2585,11 +2585,11 @@
       <c r="D97">
         <v>42</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>20.9533948217119</v>
       </c>
@@ -2602,11 +2602,11 @@
       <c r="D98">
         <v>43</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>23.441445248467499</v>
       </c>
@@ -2619,11 +2619,11 @@
       <c r="D99">
         <v>44</v>
       </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>17.916670356478001</v>
       </c>
@@ -2636,11 +2636,11 @@
       <c r="D100">
         <v>45</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>12.2560367924826</v>
       </c>
@@ -2653,11 +2653,11 @@
       <c r="D101">
         <v>46</v>
       </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>14.803079412097</v>
       </c>
@@ -2670,11 +2670,11 @@
       <c r="D102">
         <v>47</v>
       </c>
-      <c r="F102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>17.108231953212101</v>
       </c>
@@ -2687,11 +2687,11 @@
       <c r="D103">
         <v>48</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>6.0481911159696997</v>
       </c>
@@ -2704,11 +2704,11 @@
       <c r="D104">
         <v>49</v>
       </c>
-      <c r="F104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>8.6867516608465198</v>
       </c>
@@ -2721,11 +2721,11 @@
       <c r="D105">
         <v>50</v>
       </c>
-      <c r="F105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>6.7796574547177197</v>
       </c>
@@ -2738,11 +2738,11 @@
       <c r="D106">
         <v>51</v>
       </c>
-      <c r="F106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>11.6281701496669</v>
       </c>
@@ -2755,11 +2755,11 @@
       <c r="D107">
         <v>52</v>
       </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>10.245400848842801</v>
       </c>
@@ -2772,11 +2772,11 @@
       <c r="D108">
         <v>53</v>
       </c>
-      <c r="F108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>19.284758420217599</v>
       </c>
@@ -2789,11 +2789,11 @@
       <c r="D109">
         <v>54</v>
       </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>13.718763113021801</v>
       </c>
@@ -2806,11 +2806,11 @@
       <c r="D110">
         <v>55</v>
       </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>22.205557539349499</v>
       </c>
@@ -2823,11 +2823,11 @@
       <c r="D111">
         <v>56</v>
       </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>20.653115624473202</v>
       </c>
@@ -2840,11 +2840,11 @@
       <c r="D112">
         <v>57</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>23.696890796933801</v>
       </c>
@@ -2857,11 +2857,11 @@
       <c r="D113">
         <v>58</v>
       </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>18.125102111271399</v>
       </c>
@@ -2874,11 +2874,11 @@
       <c r="D114">
         <v>59</v>
       </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>8.6623021761576293</v>
       </c>
@@ -2891,11 +2891,11 @@
       <c r="D115">
         <v>60</v>
       </c>
-      <c r="F115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>7.1673105444226897</v>
       </c>
@@ -2908,11 +2908,11 @@
       <c r="D116">
         <v>61</v>
       </c>
-      <c r="F116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>19.351595072519199</v>
       </c>
@@ -2925,11 +2925,11 @@
       <c r="D117">
         <v>62</v>
       </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>8.4366908414023207</v>
       </c>
@@ -2942,11 +2942,11 @@
       <c r="D118">
         <v>63</v>
       </c>
-      <c r="F118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>6.6309560367039202</v>
       </c>
@@ -2959,11 +2959,11 @@
       <c r="D119">
         <v>64</v>
       </c>
-      <c r="F119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>17.0153541337876</v>
       </c>
@@ -2976,11 +2976,11 @@
       <c r="D120">
         <v>65</v>
       </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>7.5331643990107899</v>
       </c>
@@ -2993,11 +2993,11 @@
       <c r="D121">
         <v>66</v>
       </c>
-      <c r="F121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>13.2239923590705</v>
       </c>
@@ -3010,11 +3010,11 @@
       <c r="D122">
         <v>67</v>
       </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>11.1901093437558</v>
       </c>
@@ -3027,11 +3027,11 @@
       <c r="D123">
         <v>68</v>
       </c>
-      <c r="F123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>19.351458538146201</v>
       </c>
@@ -3044,11 +3044,11 @@
       <c r="D124">
         <v>69</v>
       </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>14.350519146238</v>
       </c>
@@ -3061,11 +3061,11 @@
       <c r="D125">
         <v>70</v>
       </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>22.8539110933031</v>
       </c>
@@ -3078,11 +3078,11 @@
       <c r="D126">
         <v>71</v>
       </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>22.433626958302</v>
       </c>
@@ -3095,11 +3095,11 @@
       <c r="D127">
         <v>72</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>23.361317441577</v>
       </c>
@@ -3112,11 +3112,11 @@
       <c r="D128">
         <v>73</v>
       </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>16.504097484406898</v>
       </c>
@@ -3129,11 +3129,11 @@
       <c r="D129">
         <v>74</v>
       </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>11.257245869863601</v>
       </c>
@@ -3146,11 +3146,11 @@
       <c r="D130">
         <v>75</v>
       </c>
-      <c r="F130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>18.5298197496505</v>
       </c>
@@ -3163,11 +3163,11 @@
       <c r="D131">
         <v>76</v>
       </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>7.64654869125002</v>
       </c>
@@ -3180,11 +3180,11 @@
       <c r="D132">
         <v>77</v>
       </c>
-      <c r="F132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>6.2854339508783204</v>
       </c>
@@ -3197,11 +3197,11 @@
       <c r="D133">
         <v>78</v>
       </c>
-      <c r="F133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>19.043351377759599</v>
       </c>
@@ -3214,11 +3214,11 @@
       <c r="D134">
         <v>79</v>
       </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>5.87458946591331</v>
       </c>
@@ -3231,11 +3231,11 @@
       <c r="D135">
         <v>80</v>
       </c>
-      <c r="F135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>11.8590645222436</v>
       </c>
@@ -3248,11 +3248,11 @@
       <c r="D136">
         <v>81</v>
       </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>8.7548655441829109</v>
       </c>
@@ -3265,11 +3265,11 @@
       <c r="D137">
         <v>82</v>
       </c>
-      <c r="F137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>18.751595406305199</v>
       </c>
@@ -3282,11 +3282,11 @@
       <c r="D138">
         <v>83</v>
       </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>12.196858599072399</v>
       </c>
@@ -3299,11 +3299,11 @@
       <c r="D139">
         <v>84</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>22.460564068385501</v>
       </c>
@@ -3316,11 +3316,11 @@
       <c r="D140">
         <v>85</v>
       </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>22.983738683518901</v>
       </c>
@@ -3333,11 +3333,11 @@
       <c r="D141">
         <v>86</v>
       </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>23.740653719220798</v>
       </c>
@@ -3350,11 +3350,11 @@
       <c r="D142">
         <v>87</v>
       </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>19.523694901239299</v>
       </c>
@@ -3367,11 +3367,11 @@
       <c r="D143">
         <v>88</v>
       </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>10.420061599640601</v>
       </c>
@@ -3384,11 +3384,11 @@
       <c r="D144">
         <v>89</v>
       </c>
-      <c r="F144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>18.094131481079799</v>
       </c>
@@ -3401,11 +3401,11 @@
       <c r="D145">
         <v>90</v>
       </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>7.2963398411160396</v>
       </c>
@@ -3418,11 +3418,11 @@
       <c r="D146">
         <v>91</v>
       </c>
-      <c r="F146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>7.3880638395036904</v>
       </c>
@@ -3435,11 +3435,11 @@
       <c r="D147">
         <v>92</v>
       </c>
-      <c r="F147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>19.234481153034</v>
       </c>
@@ -3452,11 +3452,11 @@
       <c r="D148">
         <v>93</v>
       </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>7.0258570739201103</v>
       </c>
@@ -3469,11 +3469,11 @@
       <c r="D149">
         <v>94</v>
       </c>
-      <c r="F149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>12.847892647697799</v>
       </c>
@@ -3486,11 +3486,11 @@
       <c r="D150">
         <v>95</v>
       </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>12.796279657454701</v>
       </c>
@@ -3503,11 +3503,11 @@
       <c r="D151">
         <v>96</v>
       </c>
-      <c r="F151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>18.664881104514699</v>
       </c>
@@ -3520,11 +3520,11 @@
       <c r="D152">
         <v>97</v>
       </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>13.744193803696399</v>
       </c>
@@ -3537,11 +3537,11 @@
       <c r="D153">
         <v>98</v>
       </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>19.9204521633329</v>
       </c>
@@ -3554,11 +3554,11 @@
       <c r="D154">
         <v>99</v>
       </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>20.572501239322399</v>
       </c>
@@ -3571,11 +3571,11 @@
       <c r="D155">
         <v>100</v>
       </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>23.0599504879542</v>
       </c>
@@ -3588,11 +3588,11 @@
       <c r="D156">
         <v>101</v>
       </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>18.405318044480801</v>
       </c>
@@ -3605,11 +3605,11 @@
       <c r="D157">
         <v>102</v>
       </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>8.4467165924253909</v>
       </c>
@@ -3622,11 +3622,11 @@
       <c r="D158">
         <v>103</v>
       </c>
-      <c r="F158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>17.725178763979901</v>
       </c>
@@ -3639,11 +3639,11 @@
       <c r="D159">
         <v>104</v>
       </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>6.00759359768458</v>
       </c>
@@ -3656,11 +3656,11 @@
       <c r="D160">
         <v>105</v>
       </c>
-      <c r="F160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>9.2893686067490293</v>
       </c>
@@ -3673,11 +3673,11 @@
       <c r="D161">
         <v>106</v>
       </c>
-      <c r="F161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>7.0575956844148102</v>
       </c>
@@ -3690,11 +3690,11 @@
       <c r="D162">
         <v>107</v>
       </c>
-      <c r="F162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>13.1966607570648</v>
       </c>
@@ -3707,11 +3707,11 @@
       <c r="D163">
         <v>108</v>
       </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>10.429769902002199</v>
       </c>
@@ -3724,11 +3724,11 @@
       <c r="D164">
         <v>109</v>
       </c>
-      <c r="F164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>16.404234409332201</v>
       </c>
@@ -3741,11 +3741,11 @@
       <c r="D165">
         <v>110</v>
       </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>15.075280144101001</v>
       </c>
@@ -3758,11 +3758,11 @@
       <c r="D166">
         <v>111</v>
       </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>24.224154642649999</v>
       </c>
@@ -3775,11 +3775,11 @@
       <c r="D167">
         <v>112</v>
       </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>22.893503030141101</v>
       </c>
@@ -3792,11 +3792,11 @@
       <c r="D168">
         <v>113</v>
       </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>23.750855037144198</v>
       </c>
@@ -3809,11 +3809,11 @@
       <c r="D169">
         <v>114</v>
       </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>18.787652288164399</v>
       </c>
@@ -3826,11 +3826,11 @@
       <c r="D170">
         <v>115</v>
       </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>8.9833032971336699</v>
       </c>
@@ -3843,11 +3843,11 @@
       <c r="D171">
         <v>116</v>
       </c>
-      <c r="F171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>18.851625817162599</v>
       </c>
@@ -3860,11 +3860,11 @@
       <c r="D172">
         <v>117</v>
       </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>6.9051670233408604</v>
       </c>
@@ -3877,11 +3877,11 @@
       <c r="D173">
         <v>118</v>
       </c>
-      <c r="F173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>7.6096483639308303</v>
       </c>
@@ -3894,11 +3894,11 @@
       <c r="D174">
         <v>119</v>
       </c>
-      <c r="F174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>12.850281318028699</v>
       </c>
@@ -3911,11 +3911,11 @@
       <c r="D175">
         <v>120</v>
       </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>8.5985918839772495</v>
       </c>
@@ -3928,11 +3928,11 @@
       <c r="D176">
         <v>121</v>
       </c>
-      <c r="F176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>18.877920911425601</v>
       </c>
@@ -3945,11 +3945,11 @@
       <c r="D177">
         <v>122</v>
       </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>13.881487698781999</v>
       </c>
@@ -3962,11 +3962,11 @@
       <c r="D178">
         <v>123</v>
       </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>22.3034497215634</v>
       </c>
@@ -3979,11 +3979,11 @@
       <c r="D179">
         <v>124</v>
       </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>21.9715269747234</v>
       </c>
@@ -3996,11 +3996,11 @@
       <c r="D180">
         <v>125</v>
       </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>22.956964549564098</v>
       </c>
@@ -4013,11 +4013,11 @@
       <c r="D181">
         <v>126</v>
       </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>19.013050896780801</v>
       </c>
@@ -4030,11 +4030,11 @@
       <c r="D182">
         <v>127</v>
       </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>8.33272815885997</v>
       </c>
@@ -4047,11 +4047,11 @@
       <c r="D183">
         <v>128</v>
       </c>
-      <c r="F183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>18.285577603748798</v>
       </c>
@@ -4064,11 +4064,11 @@
       <c r="D184">
         <v>129</v>
       </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>6.9978538013639904</v>
       </c>
@@ -4081,11 +4081,11 @@
       <c r="D185">
         <v>130</v>
       </c>
-      <c r="F185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>9.4457181294759103</v>
       </c>
@@ -4098,11 +4098,11 @@
       <c r="D186">
         <v>131</v>
       </c>
-      <c r="F186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>5.09203253473554</v>
       </c>
@@ -4115,11 +4115,11 @@
       <c r="D187">
         <v>132</v>
       </c>
-      <c r="F187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>13.5917293911888</v>
       </c>
@@ -4132,11 +4132,11 @@
       <c r="D188">
         <v>133</v>
       </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>9.6691024416968894</v>
       </c>
@@ -4149,11 +4149,11 @@
       <c r="D189">
         <v>134</v>
       </c>
-      <c r="F189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>19.353196189517</v>
       </c>
@@ -4166,11 +4166,11 @@
       <c r="D190">
         <v>135</v>
       </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>15.5840932755243</v>
       </c>
@@ -4183,11 +4183,11 @@
       <c r="D191">
         <v>136</v>
       </c>
-      <c r="F191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>22.093883866355501</v>
       </c>
@@ -4200,11 +4200,11 @@
       <c r="D192">
         <v>137</v>
       </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>22.068968148458499</v>
       </c>
@@ -4217,11 +4217,11 @@
       <c r="D193">
         <v>138</v>
       </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>22.417837256476901</v>
       </c>
@@ -4234,11 +4234,11 @@
       <c r="D194">
         <v>139</v>
       </c>
-      <c r="F194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>19.595549288250101</v>
       </c>
@@ -4251,11 +4251,11 @@
       <c r="D195">
         <v>140</v>
       </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>18.632095155261801</v>
       </c>
@@ -4268,11 +4268,11 @@
       <c r="D196">
         <v>141</v>
       </c>
-      <c r="F196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>7.3262613046736904</v>
       </c>
@@ -4285,11 +4285,11 @@
       <c r="D197">
         <v>142</v>
       </c>
-      <c r="F197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>8.0327025368100102</v>
       </c>
@@ -4302,11 +4302,11 @@
       <c r="D198">
         <v>143</v>
       </c>
-      <c r="F198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>7.5418354329608697</v>
       </c>
@@ -4319,11 +4319,11 @@
       <c r="D199">
         <v>144</v>
       </c>
-      <c r="F199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>13.4749363263448</v>
       </c>
@@ -4336,11 +4336,11 @@
       <c r="D200">
         <v>145</v>
       </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>9.1832665942964091</v>
       </c>
@@ -4353,11 +4353,11 @@
       <c r="D201">
         <v>146</v>
       </c>
-      <c r="F201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>20.100306193033799</v>
       </c>
@@ -4370,11 +4370,11 @@
       <c r="D202">
         <v>147</v>
       </c>
-      <c r="F202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>15.1592965807233</v>
       </c>
@@ -4387,11 +4387,11 @@
       <c r="D203">
         <v>148</v>
       </c>
-      <c r="F203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>22.032064210800801</v>
       </c>
@@ -4404,11 +4404,11 @@
       <c r="D204">
         <v>149</v>
       </c>
-      <c r="F204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>22.302722442717702</v>
       </c>
@@ -4421,11 +4421,11 @@
       <c r="D205">
         <v>150</v>
       </c>
-      <c r="F205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>23.2915124666123</v>
       </c>
@@ -4438,11 +4438,11 @@
       <c r="D206">
         <v>151</v>
       </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>18.377774919782301</v>
       </c>
@@ -4455,11 +4455,11 @@
       <c r="D207">
         <v>152</v>
       </c>
-      <c r="F207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>18.281056937717199</v>
       </c>
@@ -4472,11 +4472,11 @@
       <c r="D208">
         <v>153</v>
       </c>
-      <c r="F208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>7.5221145720708904</v>
       </c>
@@ -4489,11 +4489,11 @@
       <c r="D209">
         <v>154</v>
       </c>
-      <c r="F209">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>9.7584196385883093</v>
       </c>
@@ -4506,11 +4506,11 @@
       <c r="D210">
         <v>155</v>
       </c>
-      <c r="F210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>13.422770942960399</v>
       </c>
@@ -4523,11 +4523,11 @@
       <c r="D211">
         <v>156</v>
       </c>
-      <c r="F211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>8.7222165947868699</v>
       </c>
@@ -4540,11 +4540,11 @@
       <c r="D212">
         <v>157</v>
       </c>
-      <c r="F212">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>18.387563205900602</v>
       </c>
@@ -4557,11 +4557,11 @@
       <c r="D213">
         <v>158</v>
       </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>14.5264517239161</v>
       </c>
@@ -4574,11 +4574,11 @@
       <c r="D214">
         <v>159</v>
       </c>
-      <c r="F214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>23.802132617859598</v>
       </c>
@@ -4591,11 +4591,11 @@
       <c r="D215">
         <v>160</v>
       </c>
-      <c r="F215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>24.241589364551299</v>
       </c>
@@ -4608,11 +4608,11 @@
       <c r="D216">
         <v>161</v>
       </c>
-      <c r="F216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>23.495576188677799</v>
       </c>
@@ -4625,11 +4625,11 @@
       <c r="D217">
         <v>162</v>
       </c>
-      <c r="F217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>19.233502717245099</v>
       </c>
@@ -4642,11 +4642,11 @@
       <c r="D218">
         <v>163</v>
       </c>
-      <c r="F218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>18.140744515827699</v>
       </c>
@@ -4659,11 +4659,11 @@
       <c r="D219">
         <v>164</v>
       </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>7.06199347405206</v>
       </c>
@@ -4676,11 +4676,11 @@
       <c r="D220">
         <v>165</v>
       </c>
-      <c r="F220">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>14.498453639802401</v>
       </c>
@@ -4693,11 +4693,11 @@
       <c r="D221">
         <v>166</v>
       </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>8.6524504139309801</v>
       </c>
@@ -4710,11 +4710,11 @@
       <c r="D222">
         <v>167</v>
       </c>
-      <c r="F222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="G222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>18.6773244766961</v>
       </c>
@@ -4727,11 +4727,11 @@
       <c r="D223">
         <v>168</v>
       </c>
-      <c r="F223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>14.681630690892501</v>
       </c>
@@ -4744,11 +4744,11 @@
       <c r="D224">
         <v>169</v>
       </c>
-      <c r="F224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>22.450595503761601</v>
       </c>
@@ -4761,11 +4761,11 @@
       <c r="D225">
         <v>170</v>
       </c>
-      <c r="F225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>23.716021889731898</v>
       </c>
@@ -4778,11 +4778,11 @@
       <c r="D226">
         <v>171</v>
       </c>
-      <c r="F226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>22.760390349796801</v>
       </c>
@@ -4795,11 +4795,11 @@
       <c r="D227">
         <v>172</v>
       </c>
-      <c r="F227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>19.358925240380401</v>
       </c>
@@ -4812,11 +4812,11 @@
       <c r="D228">
         <v>173</v>
       </c>
-      <c r="F228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>16.347786676316002</v>
       </c>
@@ -4829,11 +4829,11 @@
       <c r="D229">
         <v>174</v>
       </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>7.9607469127291699</v>
       </c>
@@ -4846,11 +4846,11 @@
       <c r="D230">
         <v>175</v>
       </c>
-      <c r="F230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>19.9281152997698</v>
       </c>
@@ -4863,11 +4863,11 @@
       <c r="D231">
         <v>176</v>
       </c>
-      <c r="F231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>14.766503277279</v>
       </c>
@@ -4880,11 +4880,11 @@
       <c r="D232">
         <v>177</v>
       </c>
-      <c r="F232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>8.8542909962790297</v>
       </c>
@@ -4897,11 +4897,11 @@
       <c r="D233">
         <v>178</v>
       </c>
-      <c r="F233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>18.157523053033</v>
       </c>
@@ -4914,11 +4914,11 @@
       <c r="D234">
         <v>179</v>
       </c>
-      <c r="F234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>15.7697210993085</v>
       </c>
@@ -4931,11 +4931,11 @@
       <c r="D235">
         <v>180</v>
       </c>
-      <c r="F235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>22.630999746776698</v>
       </c>
@@ -4948,11 +4948,11 @@
       <c r="D236">
         <v>181</v>
       </c>
-      <c r="F236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>23.814434880301999</v>
       </c>
@@ -4965,11 +4965,11 @@
       <c r="D237">
         <v>182</v>
       </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>23.151923315865599</v>
       </c>
@@ -4982,11 +4982,11 @@
       <c r="D238">
         <v>183</v>
       </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>18.998615514664401</v>
       </c>
@@ -4999,11 +4999,11 @@
       <c r="D239">
         <v>184</v>
       </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>8.4640575704120398</v>
       </c>
@@ -5016,11 +5016,11 @@
       <c r="D240">
         <v>185</v>
       </c>
-      <c r="F240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>18.2904742899395</v>
       </c>
@@ -5033,11 +5033,11 @@
       <c r="D241">
         <v>186</v>
       </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>6.0675460270472898</v>
       </c>
@@ -5050,11 +5050,11 @@
       <c r="D242">
         <v>187</v>
       </c>
-      <c r="F242">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>13.9050817376091</v>
       </c>
@@ -5067,11 +5067,11 @@
       <c r="D243">
         <v>188</v>
       </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>6.5079498745146198</v>
       </c>
@@ -5084,11 +5084,11 @@
       <c r="D244">
         <v>189</v>
       </c>
-      <c r="F244">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>18.125097149894302</v>
       </c>
@@ -5101,11 +5101,11 @@
       <c r="D245">
         <v>190</v>
       </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>15.9311156727018</v>
       </c>
@@ -5118,11 +5118,11 @@
       <c r="D246">
         <v>191</v>
       </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>22.765611364727899</v>
       </c>
@@ -5135,11 +5135,11 @@
       <c r="D247">
         <v>192</v>
       </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>23.494221698670099</v>
       </c>
@@ -5152,11 +5152,11 @@
       <c r="D248">
         <v>193</v>
       </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>22.424749260856899</v>
       </c>
@@ -5169,11 +5169,11 @@
       <c r="D249">
         <v>194</v>
       </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>17.8372292972746</v>
       </c>
@@ -5186,11 +5186,11 @@
       <c r="D250">
         <v>195</v>
       </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>7.6437082858312699</v>
       </c>
@@ -5203,11 +5203,11 @@
       <c r="D251">
         <v>196</v>
       </c>
-      <c r="F251">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>17.436987184342801</v>
       </c>
@@ -5220,11 +5220,11 @@
       <c r="D252">
         <v>197</v>
       </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>8.0596186206454306</v>
       </c>
@@ -5237,11 +5237,11 @@
       <c r="D253">
         <v>198</v>
       </c>
-      <c r="F253">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>15.3794568606785</v>
       </c>
@@ -5254,11 +5254,11 @@
       <c r="D254">
         <v>199</v>
       </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>8.3119421232314306</v>
       </c>
@@ -5271,11 +5271,11 @@
       <c r="D255">
         <v>200</v>
       </c>
-      <c r="F255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>19.697829337347098</v>
       </c>
@@ -5288,11 +5288,11 @@
       <c r="D256">
         <v>201</v>
       </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>15.0247664451599</v>
       </c>
@@ -5305,11 +5305,11 @@
       <c r="D257">
         <v>202</v>
       </c>
-      <c r="F257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>21.8218173299516</v>
       </c>
@@ -5322,11 +5322,11 @@
       <c r="D258">
         <v>203</v>
       </c>
-      <c r="F258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>24.324806985400901</v>
       </c>
@@ -5339,11 +5339,11 @@
       <c r="D259">
         <v>204</v>
       </c>
-      <c r="F259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>21.720489184061599</v>
       </c>
@@ -5356,11 +5356,11 @@
       <c r="D260">
         <v>205</v>
       </c>
-      <c r="F260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>18.4999309721447</v>
       </c>
@@ -5373,11 +5373,11 @@
       <c r="D261">
         <v>206</v>
       </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>9.6542380196707498</v>
       </c>
@@ -5390,11 +5390,11 @@
       <c r="D262">
         <v>207</v>
       </c>
-      <c r="F262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>7.0116850080944202</v>
       </c>
@@ -5407,11 +5407,11 @@
       <c r="D263">
         <v>208</v>
       </c>
-      <c r="F263">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>18.842486438297001</v>
       </c>
@@ -5424,11 +5424,11 @@
       <c r="D264">
         <v>209</v>
       </c>
-      <c r="F264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>7.5388158843630801</v>
       </c>
@@ -5441,11 +5441,11 @@
       <c r="D265">
         <v>210</v>
       </c>
-      <c r="F265">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>15.4011663255237</v>
       </c>
@@ -5458,11 +5458,11 @@
       <c r="D266">
         <v>211</v>
       </c>
-      <c r="F266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>6.1271087328592904</v>
       </c>
@@ -5475,11 +5475,11 @@
       <c r="D267">
         <v>212</v>
       </c>
-      <c r="F267">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>15.462044908886799</v>
       </c>
@@ -5492,11 +5492,11 @@
       <c r="D268">
         <v>213</v>
       </c>
-      <c r="F268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>15.3040840171632</v>
       </c>
@@ -5509,11 +5509,11 @@
       <c r="D269">
         <v>214</v>
       </c>
-      <c r="F269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>20.878253357750999</v>
       </c>
@@ -5526,11 +5526,11 @@
       <c r="D270">
         <v>215</v>
       </c>
-      <c r="F270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="G270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>24.123926843915601</v>
       </c>
@@ -5543,11 +5543,11 @@
       <c r="D271">
         <v>216</v>
       </c>
-      <c r="F271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="G271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>21.2685738291059</v>
       </c>
@@ -5560,11 +5560,11 @@
       <c r="D272">
         <v>217</v>
       </c>
-      <c r="F272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>17.338788055238201</v>
       </c>
@@ -5577,11 +5577,11 @@
       <c r="D273">
         <v>218</v>
       </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>8.0193912755875303</v>
       </c>
@@ -5594,11 +5594,11 @@
       <c r="D274">
         <v>219</v>
       </c>
-      <c r="F274">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>18.878500120980299</v>
       </c>
@@ -5611,11 +5611,11 @@
       <c r="D275">
         <v>220</v>
       </c>
-      <c r="F275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>7.7954205217815504</v>
       </c>
@@ -5628,11 +5628,11 @@
       <c r="D276">
         <v>221</v>
       </c>
-      <c r="F276">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>16.660443760099799</v>
       </c>
@@ -5645,11 +5645,11 @@
       <c r="D277">
         <v>222</v>
       </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>12.3704712050301</v>
       </c>
@@ -5662,11 +5662,11 @@
       <c r="D278">
         <v>223</v>
       </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>7.4679578145344996</v>
       </c>
@@ -5679,11 +5679,11 @@
       <c r="D279">
         <v>224</v>
       </c>
-      <c r="F279">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>23.972720191592199</v>
       </c>
@@ -5696,11 +5696,11 @@
       <c r="D280">
         <v>225</v>
       </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>13.2506018366132</v>
       </c>
@@ -5713,11 +5713,11 @@
       <c r="D281">
         <v>226</v>
       </c>
-      <c r="F281">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="G281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>12.498644760676701</v>
       </c>
@@ -5730,11 +5730,11 @@
       <c r="D282">
         <v>227</v>
       </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="G282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>15.586811372212001</v>
       </c>
@@ -5747,11 +5747,11 @@
       <c r="D283">
         <v>228</v>
       </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="G283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>12.541108063289</v>
       </c>
@@ -5764,11 +5764,11 @@
       <c r="D284">
         <v>229</v>
       </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="G284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>17.5952490284329</v>
       </c>
@@ -5781,11 +5781,11 @@
       <c r="D285">
         <v>230</v>
       </c>
-      <c r="F285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="G285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>9.80211530412946</v>
       </c>
@@ -5798,11 +5798,11 @@
       <c r="D286">
         <v>231</v>
       </c>
-      <c r="F286">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="G286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>18.576754252115801</v>
       </c>
@@ -5815,11 +5815,11 @@
       <c r="D287">
         <v>232</v>
       </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="G287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>6.28379540216355</v>
       </c>
@@ -5832,11 +5832,11 @@
       <c r="D288">
         <v>233</v>
       </c>
-      <c r="F288">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>7.8561163743336904</v>
       </c>
@@ -5849,11 +5849,11 @@
       <c r="D289">
         <v>234</v>
       </c>
-      <c r="F289">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>8.0152046907515704</v>
       </c>
@@ -5866,11 +5866,11 @@
       <c r="D290">
         <v>235</v>
       </c>
-      <c r="F290">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>6.7051076434907397</v>
       </c>
@@ -5883,11 +5883,11 @@
       <c r="D291">
         <v>236</v>
       </c>
-      <c r="F291">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>10.0601642472403</v>
       </c>
@@ -5900,11 +5900,11 @@
       <c r="D292">
         <v>237</v>
       </c>
-      <c r="F292">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>9.6711968126751096</v>
       </c>
@@ -5917,11 +5917,11 @@
       <c r="D293">
         <v>0</v>
       </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>16.261110850742799</v>
       </c>
@@ -5934,11 +5934,11 @@
       <c r="D294">
         <v>1</v>
       </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>17.511358669825899</v>
       </c>
@@ -5951,11 +5951,11 @@
       <c r="D295">
         <v>2</v>
       </c>
-      <c r="F295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>11.955838294256299</v>
       </c>
@@ -5968,11 +5968,11 @@
       <c r="D296">
         <v>3</v>
       </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>16.255166644141699</v>
       </c>
@@ -5985,11 +5985,11 @@
       <c r="D297">
         <v>4</v>
       </c>
-      <c r="F297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>19.488606157756902</v>
       </c>
@@ -6002,11 +6002,11 @@
       <c r="D298">
         <v>5</v>
       </c>
-      <c r="F298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>15.337113335019</v>
       </c>
@@ -6019,11 +6019,11 @@
       <c r="D299">
         <v>6</v>
       </c>
-      <c r="F299">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>14.5988823118663</v>
       </c>
@@ -6036,11 +6036,11 @@
       <c r="D300">
         <v>7</v>
       </c>
-      <c r="F300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>17.807208197457399</v>
       </c>
@@ -6053,11 +6053,11 @@
       <c r="D301">
         <v>8</v>
       </c>
-      <c r="F301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="G301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>13.151535329364499</v>
       </c>
@@ -6070,11 +6070,11 @@
       <c r="D302">
         <v>9</v>
       </c>
-      <c r="F302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="G302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>12.3885790052868</v>
       </c>
@@ -6087,11 +6087,11 @@
       <c r="D303">
         <v>10</v>
       </c>
-      <c r="F303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="G303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>8.0513673282804898</v>
       </c>
@@ -6104,11 +6104,11 @@
       <c r="D304">
         <v>11</v>
       </c>
-      <c r="F304">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>15.935000328790499</v>
       </c>
@@ -6121,11 +6121,11 @@
       <c r="D305">
         <v>12</v>
       </c>
-      <c r="F305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="G305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>7.1537944362276997</v>
       </c>
@@ -6138,11 +6138,11 @@
       <c r="D306">
         <v>13</v>
       </c>
-      <c r="F306">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="G306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>14.099863688151</v>
       </c>
@@ -6155,11 +6155,11 @@
       <c r="D307">
         <v>14</v>
       </c>
-      <c r="F307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="G307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>6.5519551776704299</v>
       </c>
@@ -6172,11 +6172,11 @@
       <c r="D308">
         <v>15</v>
       </c>
-      <c r="F308">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="G308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>13.484272820608901</v>
       </c>
@@ -6189,11 +6189,11 @@
       <c r="D309">
         <v>16</v>
       </c>
-      <c r="F309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="G309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>19.265474705469</v>
       </c>
@@ -6206,11 +6206,11 @@
       <c r="D310">
         <v>17</v>
       </c>
-      <c r="F310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="G310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>8.4504446075076096</v>
       </c>
@@ -6223,11 +6223,11 @@
       <c r="D311">
         <v>18</v>
       </c>
-      <c r="F311">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="G311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>15.894773074558801</v>
       </c>
@@ -6240,11 +6240,11 @@
       <c r="D312">
         <v>19</v>
       </c>
-      <c r="F312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="G312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>18.336242993672599</v>
       </c>
@@ -6257,11 +6257,11 @@
       <c r="D313">
         <v>20</v>
       </c>
-      <c r="F313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="G313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>6.8666782379150302</v>
       </c>
@@ -6274,11 +6274,11 @@
       <c r="D314">
         <v>21</v>
       </c>
-      <c r="F314">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="G314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>6.5893072741372203</v>
       </c>
@@ -6291,11 +6291,11 @@
       <c r="D315">
         <v>22</v>
       </c>
-      <c r="F315">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="G315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>16.116648129054401</v>
       </c>
@@ -6308,11 +6308,11 @@
       <c r="D316">
         <v>23</v>
       </c>
-      <c r="F316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="G316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>19.393798623766202</v>
       </c>
@@ -6325,11 +6325,11 @@
       <c r="D317">
         <v>24</v>
       </c>
-      <c r="F317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="G317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>8.8298866067613808</v>
       </c>
@@ -6342,11 +6342,11 @@
       <c r="D318">
         <v>25</v>
       </c>
-      <c r="F318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="G318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>6.6152149155026301</v>
       </c>
@@ -6359,11 +6359,11 @@
       <c r="D319">
         <v>26</v>
       </c>
-      <c r="F319">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="G319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320">
         <v>20.757915633065299</v>
       </c>
@@ -6376,11 +6376,11 @@
       <c r="D320">
         <v>27</v>
       </c>
-      <c r="F320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="G320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>24.584874516441701</v>
       </c>
@@ -6393,11 +6393,11 @@
       <c r="D321">
         <v>28</v>
       </c>
-      <c r="F321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="G321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322">
         <v>8.5308971291496594</v>
       </c>
@@ -6410,11 +6410,11 @@
       <c r="D322">
         <v>29</v>
       </c>
-      <c r="F322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="G322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>6.8530636628468802</v>
       </c>
@@ -6427,11 +6427,11 @@
       <c r="D323">
         <v>30</v>
       </c>
-      <c r="F323">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="G323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324">
         <v>18.572746163322801</v>
       </c>
@@ -6444,11 +6444,11 @@
       <c r="D324">
         <v>31</v>
       </c>
-      <c r="F324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
+      <c r="G324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325">
         <v>30.6652791159493</v>
       </c>
@@ -6461,11 +6461,11 @@
       <c r="D325">
         <v>32</v>
       </c>
-      <c r="F325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="G325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326">
         <v>7.6271560646238701</v>
       </c>
@@ -6478,11 +6478,11 @@
       <c r="D326">
         <v>33</v>
       </c>
-      <c r="F326">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="G326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327">
         <v>6.9206677845546096</v>
       </c>
@@ -6495,11 +6495,11 @@
       <c r="D327">
         <v>34</v>
       </c>
-      <c r="F327">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="G327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328">
         <v>21.7015771638779</v>
       </c>
@@ -6512,11 +6512,11 @@
       <c r="D328">
         <v>35</v>
       </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="G328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329">
         <v>17.958537737528399</v>
       </c>
@@ -6529,11 +6529,11 @@
       <c r="D329">
         <v>36</v>
       </c>
-      <c r="F329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="G329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330">
         <v>7.6997379234858903</v>
       </c>
@@ -6546,11 +6546,11 @@
       <c r="D330">
         <v>37</v>
       </c>
-      <c r="F330">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="G330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331">
         <v>7.0243335791996504</v>
       </c>
@@ -6563,11 +6563,11 @@
       <c r="D331">
         <v>38</v>
       </c>
-      <c r="F331">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+      <c r="G331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332">
         <v>14.659678663526201</v>
       </c>
@@ -6580,11 +6580,11 @@
       <c r="D332">
         <v>39</v>
       </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+      <c r="G332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333">
         <v>27.065642356872502</v>
       </c>
@@ -6597,11 +6597,11 @@
       <c r="D333">
         <v>40</v>
       </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+      <c r="G333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334">
         <v>20.787038576035201</v>
       </c>
@@ -6614,11 +6614,11 @@
       <c r="D334">
         <v>41</v>
       </c>
-      <c r="F334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="G334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335">
         <v>7.7654891581762397</v>
       </c>
@@ -6631,11 +6631,11 @@
       <c r="D335">
         <v>42</v>
       </c>
-      <c r="F335">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
+      <c r="G335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336">
         <v>15.5107975233168</v>
       </c>
@@ -6648,11 +6648,11 @@
       <c r="D336">
         <v>43</v>
       </c>
-      <c r="F336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+      <c r="G336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337">
         <v>23.276909010750899</v>
       </c>
@@ -6665,11 +6665,11 @@
       <c r="D337">
         <v>44</v>
       </c>
-      <c r="F337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+      <c r="G337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338">
         <v>7.8996464638482902</v>
       </c>
@@ -6682,11 +6682,11 @@
       <c r="D338">
         <v>45</v>
       </c>
-      <c r="F338">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+      <c r="G338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339">
         <v>18.2679151353381</v>
       </c>
@@ -6699,11 +6699,11 @@
       <c r="D339">
         <v>46</v>
       </c>
-      <c r="F339">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+      <c r="G339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340">
         <v>19.949680964152002</v>
       </c>
@@ -6716,11 +6716,11 @@
       <c r="D340">
         <v>47</v>
       </c>
-      <c r="F340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="G340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341">
         <v>27.049276488167799</v>
       </c>
@@ -6733,11 +6733,11 @@
       <c r="D341">
         <v>48</v>
       </c>
-      <c r="F341">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="G341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342">
         <v>23.4472703933715</v>
       </c>
@@ -6750,11 +6750,11 @@
       <c r="D342">
         <v>49</v>
       </c>
-      <c r="F342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+      <c r="G342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343">
         <v>18.850674470265702</v>
       </c>
@@ -6767,11 +6767,11 @@
       <c r="D343">
         <v>50</v>
       </c>
-      <c r="F343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+      <c r="G343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344">
         <v>16.453210490090498</v>
       </c>
@@ -6784,11 +6784,11 @@
       <c r="D344">
         <v>51</v>
       </c>
-      <c r="F344">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+      <c r="G344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345">
         <v>22.584423269544299</v>
       </c>
@@ -6801,11 +6801,11 @@
       <c r="D345">
         <v>52</v>
       </c>
-      <c r="F345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+      <c r="G345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346">
         <v>11.178248768761</v>
       </c>
@@ -6818,11 +6818,11 @@
       <c r="D346">
         <v>53</v>
       </c>
-      <c r="F346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+      <c r="G346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347">
         <v>7.8900138537088997</v>
       </c>
@@ -6835,11 +6835,11 @@
       <c r="D347">
         <v>54</v>
       </c>
-      <c r="F347">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+      <c r="G347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348">
         <v>21.4893275896708</v>
       </c>
@@ -6852,11 +6852,11 @@
       <c r="D348">
         <v>55</v>
       </c>
-      <c r="F348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+      <c r="G348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349">
         <v>24.565081096830799</v>
       </c>
@@ -6869,11 +6869,11 @@
       <c r="D349">
         <v>56</v>
       </c>
-      <c r="F349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+      <c r="G349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350">
         <v>4.9744543348039896</v>
       </c>
@@ -6886,11 +6886,11 @@
       <c r="D350">
         <v>57</v>
       </c>
-      <c r="F350">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+      <c r="G350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351">
         <v>7.5022540433066203</v>
       </c>
@@ -6903,11 +6903,11 @@
       <c r="D351">
         <v>58</v>
       </c>
-      <c r="F351">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+      <c r="G351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352">
         <v>6.8657862458910204</v>
       </c>
@@ -6920,7 +6920,7 @@
       <c r="D352">
         <v>59</v>
       </c>
-      <c r="F352">
+      <c r="G352">
         <v>2</v>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       <c r="D353">
         <v>60</v>
       </c>
-      <c r="F353">
+      <c r="G353">
         <v>1</v>
       </c>
     </row>
@@ -6954,7 +6954,7 @@
       <c r="D354">
         <v>61</v>
       </c>
-      <c r="F354">
+      <c r="G354">
         <v>1</v>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
       <c r="D355">
         <v>62</v>
       </c>
-      <c r="F355">
+      <c r="G355">
         <v>1</v>
       </c>
     </row>
@@ -6988,7 +6988,7 @@
       <c r="D356">
         <v>63</v>
       </c>
-      <c r="F356">
+      <c r="G356">
         <v>2</v>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       <c r="D357">
         <v>0</v>
       </c>
-      <c r="F357">
+      <c r="G357">
         <v>1</v>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       <c r="D358">
         <v>1</v>
       </c>
-      <c r="F358">
+      <c r="G358">
         <v>1</v>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       <c r="D359">
         <v>2</v>
       </c>
-      <c r="F359">
+      <c r="G359">
         <v>1</v>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       <c r="D360">
         <v>3</v>
       </c>
-      <c r="F360">
+      <c r="G360">
         <v>1</v>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       <c r="D361">
         <v>4</v>
       </c>
-      <c r="F361">
+      <c r="G361">
         <v>1</v>
       </c>
     </row>
@@ -7090,7 +7090,7 @@
       <c r="D362">
         <v>5</v>
       </c>
-      <c r="F362">
+      <c r="G362">
         <v>1</v>
       </c>
     </row>
@@ -7138,19 +7138,19 @@
     </row>
     <row r="368" spans="1:12">
       <c r="I368">
-        <f>COUNTIFS($B2:$B362,$B360,$F2:$F362,$F355)</f>
-        <v>255</v>
+        <f>COUNTIFS($B2:$B362,$B360,$G2:$G362,$G355)</f>
+        <v>252</v>
       </c>
       <c r="J368">
-        <f>COUNTIFS(B2:B362,B362,F2:F362,F356)</f>
-        <v>47</v>
+        <f>COUNTIFS(B2:B362,B362,G2:G362,G356)</f>
+        <v>50</v>
       </c>
       <c r="K368">
-        <f>COUNTIFS($B2:$B362,$B356,$F2:$F362,$F355)</f>
+        <f>COUNTIFS($B2:$B362,$B356,$G2:$G362,$G355)</f>
         <v>0</v>
       </c>
       <c r="L368">
-        <f>COUNTIFS($B2:$B362,$B356,$F2:$F362,$F356)</f>
+        <f>COUNTIFS($B2:$B362,$B356,$G2:$G362,$G356)</f>
         <v>59</v>
       </c>
     </row>
@@ -7174,11 +7174,11 @@
     <row r="371" spans="9:13">
       <c r="I371">
         <f>(I368+L368)/(I368+J368+K368+L368)</f>
-        <v>0.86980609418282551</v>
+        <v>0.86149584487534625</v>
       </c>
       <c r="J371">
         <f>I368/(I368+J368)</f>
-        <v>0.8443708609271523</v>
+        <v>0.83443708609271527</v>
       </c>
       <c r="K371">
         <f>I368/(I368+K368)</f>
@@ -7186,11 +7186,11 @@
       </c>
       <c r="L371">
         <f>L368/(J368+L368)</f>
-        <v>0.55660377358490565</v>
+        <v>0.54128440366972475</v>
       </c>
       <c r="M371">
         <f>(2*K371*J371)/(K371+J371)</f>
-        <v>0.91561938958707356</v>
+        <v>0.90974729241877261</v>
       </c>
     </row>
   </sheetData>
